--- a/ONCHO/OEM/Nigeria/Oct 2023/ng_site_202310.xlsx
+++ b/ONCHO/OEM/Nigeria/Oct 2023/ng_site_202310.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\OEM\Nigeria\Oct 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\OEM\Nigeria\Oct 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F216E99-842B-47DA-B885-FA2461AC4995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE60F114-E6EB-4954-9F15-9497386CF46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA63D15C-1FB3-42BF-8925-73EE09E32D84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA63D15C-1FB3-42BF-8925-73EE09E32D84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -979,7 +979,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1031,7 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>4</v>
@@ -1059,6 +1059,9 @@
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="D3">
+        <v>402</v>
+      </c>
       <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1082,6 +1085,9 @@
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D4">
+        <v>403</v>
+      </c>
       <c r="H4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1105,6 +1111,9 @@
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="D5">
+        <v>404</v>
+      </c>
       <c r="H5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1128,6 +1137,9 @@
       <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="D6">
+        <v>405</v>
+      </c>
       <c r="H6" s="7" t="s">
         <v>4</v>
       </c>
@@ -1151,6 +1163,9 @@
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D7">
+        <v>406</v>
+      </c>
       <c r="H7" s="7" t="s">
         <v>4</v>
       </c>
@@ -1174,6 +1189,9 @@
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="D8">
+        <v>407</v>
+      </c>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1197,6 +1215,9 @@
       <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="D9">
+        <v>408</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>4</v>
       </c>
@@ -1220,6 +1241,9 @@
       <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="D10">
+        <v>409</v>
+      </c>
       <c r="H10" s="7" t="s">
         <v>4</v>
       </c>
@@ -1243,6 +1267,9 @@
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="D11">
+        <v>410</v>
+      </c>
       <c r="H11" s="7" t="s">
         <v>4</v>
       </c>
@@ -1266,6 +1293,9 @@
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D12">
+        <v>411</v>
+      </c>
       <c r="H12" s="7" t="s">
         <v>4</v>
       </c>
@@ -1289,6 +1319,9 @@
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D13">
+        <v>412</v>
+      </c>
       <c r="H13" s="7" t="s">
         <v>4</v>
       </c>
@@ -1312,6 +1345,9 @@
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="D14">
+        <v>413</v>
+      </c>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -1335,6 +1371,9 @@
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="D15">
+        <v>414</v>
+      </c>
       <c r="H15" s="7" t="s">
         <v>4</v>
       </c>
@@ -1358,6 +1397,9 @@
       <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="D16">
+        <v>415</v>
+      </c>
       <c r="K16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1375,6 +1417,9 @@
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="D17">
+        <v>416</v>
+      </c>
       <c r="K17" s="3" t="s">
         <v>13</v>
       </c>
@@ -1392,6 +1437,9 @@
       <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="D18">
+        <v>417</v>
+      </c>
       <c r="K18" s="3" t="s">
         <v>13</v>
       </c>
@@ -1409,6 +1457,9 @@
       <c r="C19" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D19">
+        <v>418</v>
+      </c>
       <c r="K19" s="3" t="s">
         <v>13</v>
       </c>
@@ -1426,6 +1477,9 @@
       <c r="C20" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="D20">
+        <v>419</v>
+      </c>
       <c r="K20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1443,6 +1497,9 @@
       <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="D21">
+        <v>420</v>
+      </c>
       <c r="K21" s="3" t="s">
         <v>13</v>
       </c>
@@ -1460,6 +1517,9 @@
       <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="D22">
+        <v>421</v>
+      </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1477,6 +1537,9 @@
       <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D23">
+        <v>422</v>
+      </c>
       <c r="K23" s="3" t="s">
         <v>10</v>
       </c>
@@ -1494,6 +1557,9 @@
       <c r="C24" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="D24">
+        <v>423</v>
+      </c>
       <c r="K24" s="3" t="s">
         <v>10</v>
       </c>
@@ -1511,6 +1577,9 @@
       <c r="C25" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="D25">
+        <v>424</v>
+      </c>
       <c r="K25" s="3" t="s">
         <v>11</v>
       </c>
@@ -1528,6 +1597,9 @@
       <c r="C26" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="D26">
+        <v>425</v>
+      </c>
       <c r="K26" s="3" t="s">
         <v>11</v>
       </c>
@@ -1545,6 +1617,9 @@
       <c r="C27" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="D27">
+        <v>426</v>
+      </c>
       <c r="K27" s="3" t="s">
         <v>11</v>
       </c>
@@ -1562,6 +1637,9 @@
       <c r="C28" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="D28">
+        <v>427</v>
+      </c>
       <c r="K28" s="3" t="s">
         <v>11</v>
       </c>
@@ -1579,6 +1657,9 @@
       <c r="C29" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="D29">
+        <v>428</v>
+      </c>
       <c r="K29" s="3" t="s">
         <v>11</v>
       </c>
@@ -1596,6 +1677,9 @@
       <c r="C30" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="D30">
+        <v>429</v>
+      </c>
       <c r="K30" s="3" t="s">
         <v>5</v>
       </c>
@@ -1613,6 +1697,9 @@
       <c r="C31" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="D31">
+        <v>430</v>
+      </c>
       <c r="K31" s="3" t="s">
         <v>5</v>
       </c>
@@ -1630,6 +1717,9 @@
       <c r="C32" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="D32">
+        <v>431</v>
+      </c>
       <c r="K32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1647,6 +1737,9 @@
       <c r="C33" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="D33">
+        <v>432</v>
+      </c>
       <c r="K33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1664,6 +1757,9 @@
       <c r="C34" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="D34">
+        <v>433</v>
+      </c>
       <c r="K34" s="3" t="s">
         <v>6</v>
       </c>
@@ -1681,6 +1777,9 @@
       <c r="C35" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="D35">
+        <v>434</v>
+      </c>
       <c r="K35" s="3" t="s">
         <v>6</v>
       </c>
@@ -1698,6 +1797,9 @@
       <c r="C36" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="D36">
+        <v>435</v>
+      </c>
       <c r="K36" s="3" t="s">
         <v>6</v>
       </c>
@@ -1715,6 +1817,9 @@
       <c r="C37" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="D37">
+        <v>436</v>
+      </c>
       <c r="K37" s="3" t="s">
         <v>6</v>
       </c>
@@ -1732,6 +1837,9 @@
       <c r="C38" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="D38">
+        <v>437</v>
+      </c>
       <c r="K38" s="3" t="s">
         <v>6</v>
       </c>
@@ -1749,6 +1857,9 @@
       <c r="C39" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="D39">
+        <v>438</v>
+      </c>
       <c r="K39" s="3" t="s">
         <v>17</v>
       </c>
@@ -1766,6 +1877,9 @@
       <c r="C40" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="D40">
+        <v>439</v>
+      </c>
       <c r="K40" s="3" t="s">
         <v>17</v>
       </c>
@@ -1783,6 +1897,9 @@
       <c r="C41" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="D41">
+        <v>440</v>
+      </c>
       <c r="K41" s="3" t="s">
         <v>17</v>
       </c>
@@ -1800,6 +1917,9 @@
       <c r="C42" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="D42">
+        <v>441</v>
+      </c>
       <c r="K42" s="3" t="s">
         <v>17</v>
       </c>
@@ -1817,6 +1937,9 @@
       <c r="C43" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="D43">
+        <v>442</v>
+      </c>
       <c r="K43" s="3" t="s">
         <v>17</v>
       </c>
@@ -1834,6 +1957,9 @@
       <c r="C44" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="D44">
+        <v>443</v>
+      </c>
       <c r="K44" s="3" t="s">
         <v>18</v>
       </c>
@@ -1851,6 +1977,9 @@
       <c r="C45" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="D45">
+        <v>444</v>
+      </c>
       <c r="K45" s="3" t="s">
         <v>18</v>
       </c>
@@ -1868,6 +1997,9 @@
       <c r="C46" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="D46">
+        <v>445</v>
+      </c>
       <c r="K46" s="3" t="s">
         <v>18</v>
       </c>
@@ -1885,6 +2017,9 @@
       <c r="C47" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="D47">
+        <v>446</v>
+      </c>
       <c r="K47" s="3" t="s">
         <v>18</v>
       </c>
@@ -1902,6 +2037,9 @@
       <c r="C48" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="D48">
+        <v>447</v>
+      </c>
       <c r="K48" s="3" t="s">
         <v>18</v>
       </c>
@@ -1919,6 +2057,9 @@
       <c r="C49" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="D49">
+        <v>448</v>
+      </c>
       <c r="K49" s="3" t="s">
         <v>7</v>
       </c>
@@ -1936,6 +2077,9 @@
       <c r="C50" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="D50">
+        <v>449</v>
+      </c>
       <c r="K50" s="3" t="s">
         <v>7</v>
       </c>
@@ -1953,6 +2097,9 @@
       <c r="C51" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="D51">
+        <v>450</v>
+      </c>
       <c r="K51" s="3" t="s">
         <v>7</v>
       </c>
@@ -1970,6 +2117,9 @@
       <c r="C52" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="D52">
+        <v>451</v>
+      </c>
       <c r="K52" s="3" t="s">
         <v>7</v>
       </c>
@@ -1987,6 +2137,9 @@
       <c r="C53" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="D53">
+        <v>452</v>
+      </c>
       <c r="K53" s="3" t="s">
         <v>7</v>
       </c>
@@ -2004,6 +2157,9 @@
       <c r="C54" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="D54">
+        <v>453</v>
+      </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2021,6 +2177,9 @@
       <c r="C55" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="D55">
+        <v>454</v>
+      </c>
       <c r="K55" s="3" t="s">
         <v>8</v>
       </c>
@@ -2038,6 +2197,9 @@
       <c r="C56" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="D56">
+        <v>455</v>
+      </c>
       <c r="K56" s="3" t="s">
         <v>8</v>
       </c>
@@ -2055,6 +2217,9 @@
       <c r="C57" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="D57">
+        <v>456</v>
+      </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2072,6 +2237,9 @@
       <c r="C58" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="D58">
+        <v>457</v>
+      </c>
       <c r="K58" s="3" t="s">
         <v>12</v>
       </c>
@@ -2089,6 +2257,9 @@
       <c r="C59" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="D59">
+        <v>458</v>
+      </c>
       <c r="K59" s="3" t="s">
         <v>12</v>
       </c>
@@ -2106,6 +2277,9 @@
       <c r="C60" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="D60">
+        <v>459</v>
+      </c>
       <c r="K60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2123,6 +2297,9 @@
       <c r="C61" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="D61">
+        <v>460</v>
+      </c>
       <c r="K61" s="3" t="s">
         <v>12</v>
       </c>
@@ -2140,6 +2317,9 @@
       <c r="C62" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="D62">
+        <v>461</v>
+      </c>
       <c r="K62" s="3" t="s">
         <v>9</v>
       </c>
@@ -2157,6 +2337,9 @@
       <c r="C63" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="D63">
+        <v>462</v>
+      </c>
       <c r="K63" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,6 +2357,9 @@
       <c r="C64" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="D64">
+        <v>463</v>
+      </c>
       <c r="K64" s="3" t="s">
         <v>9</v>
       </c>
@@ -2190,6 +2376,9 @@
       </c>
       <c r="C65" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="D65">
+        <v>464</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>9</v>
